--- a/Experiment results/Experiment_results (DB2).xlsx
+++ b/Experiment results/Experiment_results (DB2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songmingyang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songmingyang/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37D72990-9E6B-3E40-9F3E-9D7FDE31D400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06EBC41-1BD8-2744-BFCB-ABA80C96FEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="6900" windowWidth="25000" windowHeight="14020" xr2:uid="{1687F7B1-0F86-AD43-9143-76067F66B568}"/>
+    <workbookView xWindow="6800" yWindow="1200" windowWidth="25000" windowHeight="14020" xr2:uid="{1687F7B1-0F86-AD43-9143-76067F66B568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691DB078-AD29-9643-8284-9CA89D239134}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:L34"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -566,34 +566,34 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="H2">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="I2">
-        <v>21</v>
+        <v>70</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="K2">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="L2">
-        <v>30</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -604,34 +604,34 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>1.7629999999999999</v>
+        <v>5.8760000000000003</v>
       </c>
       <c r="D3">
-        <v>2.6829999999999998</v>
+        <v>8.9429999999999996</v>
       </c>
       <c r="E3">
-        <v>3.7669999999999999</v>
+        <v>12.545999999999999</v>
       </c>
       <c r="F3">
-        <v>4.5359999999999996</v>
+        <v>15.127000000000001</v>
       </c>
       <c r="G3">
-        <v>5.5730000000000004</v>
+        <v>18.576000000000001</v>
       </c>
       <c r="H3">
-        <v>6.6340000000000003</v>
+        <v>22.131</v>
       </c>
       <c r="I3">
-        <v>7.5629999999999997</v>
+        <v>25.213999999999999</v>
       </c>
       <c r="J3">
-        <v>8.6470000000000002</v>
+        <v>28.824999999999999</v>
       </c>
       <c r="K3">
-        <v>9.6669999999999998</v>
+        <v>32.673000000000002</v>
       </c>
       <c r="L3">
-        <v>10.545999999999999</v>
+        <v>15.153</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -640,34 +640,34 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>2.1789999999999998</v>
+        <v>7.2629999999999999</v>
       </c>
       <c r="D4">
-        <v>3.528</v>
+        <v>11.763999999999999</v>
       </c>
       <c r="E4">
-        <v>5.016</v>
+        <v>16.736000000000001</v>
       </c>
       <c r="F4">
-        <v>6.5709999999999997</v>
+        <v>21.902999999999999</v>
       </c>
       <c r="G4">
-        <v>7.8460000000000001</v>
+        <v>26.152999999999999</v>
       </c>
       <c r="H4">
-        <v>9.2129999999999992</v>
+        <v>30.719000000000001</v>
       </c>
       <c r="I4">
-        <v>10.364000000000001</v>
+        <v>34.545999999999999</v>
       </c>
       <c r="J4">
-        <v>11.835000000000001</v>
+        <v>39.457999999999998</v>
       </c>
       <c r="K4">
-        <v>13.234999999999999</v>
+        <v>44.113</v>
       </c>
       <c r="L4">
-        <v>14.670999999999999</v>
+        <v>48.902999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -676,34 +676,34 @@
         <v>7</v>
       </c>
       <c r="C5">
-        <v>1.4530000000000001</v>
+        <v>4.4530000000000003</v>
       </c>
       <c r="D5">
-        <v>2.3260000000000001</v>
+        <v>7.726</v>
       </c>
       <c r="E5">
-        <v>3.073</v>
+        <v>10.273</v>
       </c>
       <c r="F5">
-        <v>3.7610000000000001</v>
+        <v>12.561</v>
       </c>
       <c r="G5">
-        <v>4.5019999999999998</v>
+        <v>15.003</v>
       </c>
       <c r="H5">
-        <v>5.2629999999999999</v>
+        <v>17.526</v>
       </c>
       <c r="I5">
-        <v>6.0359999999999996</v>
+        <v>20.126000000000001</v>
       </c>
       <c r="J5">
-        <v>6.8129999999999997</v>
+        <v>22.812999999999999</v>
       </c>
       <c r="K5">
-        <v>7.5359999999999996</v>
+        <v>25.135999999999999</v>
       </c>
       <c r="L5">
-        <v>8.2840000000000007</v>
+        <v>27.684000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -714,34 +714,34 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>6.84</v>
+        <v>16.3</v>
       </c>
       <c r="D6">
-        <v>13.68</v>
+        <v>32.6</v>
       </c>
       <c r="E6">
-        <v>20.52</v>
+        <v>48.9</v>
       </c>
       <c r="F6">
-        <v>27.36</v>
+        <v>65.2</v>
       </c>
       <c r="G6">
-        <v>34.200000000000003</v>
+        <v>81.5</v>
       </c>
       <c r="H6">
-        <v>41.04</v>
+        <v>97.8</v>
       </c>
       <c r="I6">
-        <v>47.88</v>
+        <v>114.1</v>
       </c>
       <c r="J6">
-        <v>54.72</v>
+        <v>130.4</v>
       </c>
       <c r="K6">
-        <v>61.56</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="L6">
-        <v>68.400000000000006</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -750,34 +750,34 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>10.199999999999999</v>
+        <v>34</v>
       </c>
       <c r="D7">
-        <v>20.399999999999999</v>
+        <v>68</v>
       </c>
       <c r="E7">
-        <v>30.6</v>
+        <v>102</v>
       </c>
       <c r="F7">
-        <v>40.799999999999997</v>
+        <v>136</v>
       </c>
       <c r="G7">
-        <v>51</v>
+        <v>170</v>
       </c>
       <c r="H7">
-        <v>61.2</v>
+        <v>204</v>
       </c>
       <c r="I7">
-        <v>71.400000000000006</v>
+        <v>238</v>
       </c>
       <c r="J7">
-        <v>81.599999999999994</v>
+        <v>272</v>
       </c>
       <c r="K7">
-        <v>91.8</v>
+        <v>306</v>
       </c>
       <c r="L7">
-        <v>102</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -786,34 +786,34 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>4.8899999999999997</v>
+        <v>22.8</v>
       </c>
       <c r="D8">
-        <v>9.7799999999999994</v>
+        <v>45.6</v>
       </c>
       <c r="E8">
-        <v>14.67</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="F8">
-        <v>19.559999999999999</v>
+        <v>91.2</v>
       </c>
       <c r="G8">
-        <v>24.45</v>
+        <v>114</v>
       </c>
       <c r="H8">
-        <v>29.34</v>
+        <v>136.80000000000001</v>
       </c>
       <c r="I8">
-        <v>34.229999999999997</v>
+        <v>159.6</v>
       </c>
       <c r="J8">
-        <v>39.119999999999997</v>
+        <v>182.4</v>
       </c>
       <c r="K8">
-        <v>44.01</v>
+        <v>205.2</v>
       </c>
       <c r="L8">
-        <v>48.9</v>
+        <v>228</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -837,34 +837,34 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>30</v>
+        <v>100</v>
       </c>
       <c r="E12">
-        <v>45</v>
+        <v>150</v>
       </c>
       <c r="F12">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="G12">
-        <v>75</v>
+        <v>250</v>
       </c>
       <c r="H12">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="I12">
-        <v>105</v>
+        <v>350</v>
       </c>
       <c r="J12">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="K12">
-        <v>135</v>
+        <v>450</v>
       </c>
       <c r="L12">
-        <v>150</v>
+        <v>500</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -875,34 +875,34 @@
         <v>5</v>
       </c>
       <c r="C13">
-        <v>3.6469999999999998</v>
+        <v>12.147</v>
       </c>
       <c r="D13">
-        <v>6.8739999999999997</v>
+        <v>22.974</v>
       </c>
       <c r="E13">
-        <v>10.326000000000001</v>
+        <v>34.426000000000002</v>
       </c>
       <c r="F13">
-        <v>13.731999999999999</v>
+        <v>45.731999999999999</v>
       </c>
       <c r="G13">
-        <v>16.838000000000001</v>
+        <v>56.137999999999998</v>
       </c>
       <c r="H13">
-        <v>20.545999999999999</v>
+        <v>68.546000000000006</v>
       </c>
       <c r="I13">
-        <v>23.875</v>
+        <v>79.575000000000003</v>
       </c>
       <c r="J13">
-        <v>27.015999999999998</v>
+        <v>90.016000000000005</v>
       </c>
       <c r="K13">
-        <v>30.672999999999998</v>
+        <v>102.24299999999999</v>
       </c>
       <c r="L13">
-        <v>34.173999999999999</v>
+        <v>113.917</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -911,34 +911,34 @@
         <v>7</v>
       </c>
       <c r="C14">
-        <v>4.351</v>
+        <v>14.500999999999999</v>
       </c>
       <c r="D14">
-        <v>9.1170000000000009</v>
+        <v>30.390999999999998</v>
       </c>
       <c r="E14">
-        <v>13.673999999999999</v>
+        <v>45.581000000000003</v>
       </c>
       <c r="F14">
-        <v>18.260999999999999</v>
+        <v>60.871000000000002</v>
       </c>
       <c r="G14">
-        <v>22.863</v>
+        <v>76.212999999999994</v>
       </c>
       <c r="H14">
-        <v>27.295999999999999</v>
+        <v>90.986000000000004</v>
       </c>
       <c r="I14">
-        <v>31.742999999999999</v>
+        <v>105.843</v>
       </c>
       <c r="J14">
-        <v>35.975000000000001</v>
+        <v>119.91500000000001</v>
       </c>
       <c r="K14">
-        <v>40.536999999999999</v>
+        <v>135.137</v>
       </c>
       <c r="L14">
-        <v>45.036000000000001</v>
+        <v>150.136</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -949,34 +949,34 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>34.200000000000003</v>
+        <v>81.5</v>
       </c>
       <c r="D15">
-        <v>68.400000000000006</v>
+        <v>163</v>
       </c>
       <c r="E15">
-        <v>102.6</v>
+        <v>244.5</v>
       </c>
       <c r="F15">
-        <v>136.80000000000001</v>
+        <v>326</v>
       </c>
       <c r="G15">
-        <v>171</v>
+        <v>407.5</v>
       </c>
       <c r="H15">
-        <v>205.2</v>
+        <v>489</v>
       </c>
       <c r="I15">
-        <v>239.4</v>
+        <v>570.5</v>
       </c>
       <c r="J15">
-        <v>273.60000000000002</v>
+        <v>652</v>
       </c>
       <c r="K15">
-        <v>307.8</v>
+        <v>733.5</v>
       </c>
       <c r="L15">
-        <v>342</v>
+        <v>815</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -985,34 +985,34 @@
         <v>7</v>
       </c>
       <c r="C16">
-        <v>24.45</v>
+        <v>114</v>
       </c>
       <c r="D16">
-        <v>48.9</v>
+        <v>228</v>
       </c>
       <c r="E16">
-        <v>73.349999999999994</v>
+        <v>342</v>
       </c>
       <c r="F16">
-        <v>97.8</v>
+        <v>456</v>
       </c>
       <c r="G16">
-        <v>122.25</v>
+        <v>570</v>
       </c>
       <c r="H16">
-        <v>146.69999999999999</v>
+        <v>684</v>
       </c>
       <c r="I16">
-        <v>171.15</v>
+        <v>798</v>
       </c>
       <c r="J16">
-        <v>195.6</v>
+        <v>912</v>
       </c>
       <c r="K16">
-        <v>220.05</v>
+        <v>1026</v>
       </c>
       <c r="L16">
-        <v>244.5</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1036,34 +1036,34 @@
         <v>10</v>
       </c>
       <c r="C20">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D20">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E20">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="F20">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="G20">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="H20">
-        <v>270</v>
+        <v>300</v>
       </c>
       <c r="I20">
-        <v>315</v>
+        <v>350</v>
       </c>
       <c r="J20">
-        <v>360</v>
+        <v>400</v>
       </c>
       <c r="K20">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="L20">
-        <v>450</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1074,34 +1074,34 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>18.242000000000001</v>
+        <v>20.268000000000001</v>
       </c>
       <c r="D21">
-        <v>31.216000000000001</v>
+        <v>34.683999999999997</v>
       </c>
       <c r="E21">
-        <v>42.652000000000001</v>
+        <v>47.390999999999998</v>
       </c>
       <c r="F21">
-        <v>54.475999999999999</v>
+        <v>60.527999999999999</v>
       </c>
       <c r="G21">
-        <v>65.772999999999996</v>
+        <v>73.081000000000003</v>
       </c>
       <c r="H21">
-        <v>76.335999999999999</v>
+        <v>84.816999999999993</v>
       </c>
       <c r="I21">
-        <v>87.265000000000001</v>
+        <v>96.861000000000004</v>
       </c>
       <c r="J21">
-        <v>98.763000000000005</v>
+        <v>109.73699999999999</v>
       </c>
       <c r="K21">
-        <v>109.66500000000001</v>
+        <v>121.852</v>
       </c>
       <c r="L21">
-        <v>120.791</v>
+        <v>134.214</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1110,34 +1110,34 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>23.146000000000001</v>
+        <v>25.716999999999999</v>
       </c>
       <c r="D22">
-        <v>39.234999999999999</v>
+        <v>43.594000000000001</v>
       </c>
       <c r="E22">
-        <v>55.670999999999999</v>
+        <v>61.856999999999999</v>
       </c>
       <c r="F22">
-        <v>69.873999999999995</v>
+        <v>77.623000000000005</v>
       </c>
       <c r="G22">
-        <v>87.364000000000004</v>
+        <v>97.070999999999998</v>
       </c>
       <c r="H22">
-        <v>103.36199999999999</v>
+        <v>114.846</v>
       </c>
       <c r="I22">
-        <v>118.63500000000001</v>
+        <v>131.81700000000001</v>
       </c>
       <c r="J22">
-        <v>132.71899999999999</v>
+        <v>147.46600000000001</v>
       </c>
       <c r="K22">
-        <v>147.26300000000001</v>
+        <v>163.625</v>
       </c>
       <c r="L22">
-        <v>162.88499999999999</v>
+        <v>180.983</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1146,34 +1146,34 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>13.488</v>
+        <v>14.987</v>
       </c>
       <c r="D23">
-        <v>17.024999999999999</v>
+        <v>18.917000000000002</v>
       </c>
       <c r="E23">
-        <v>20.669</v>
+        <v>22.966000000000001</v>
       </c>
       <c r="F23">
-        <v>24.364000000000001</v>
+        <v>27.071000000000002</v>
       </c>
       <c r="G23">
-        <v>27.821000000000002</v>
+        <v>30.911999999999999</v>
       </c>
       <c r="H23">
-        <v>31.445</v>
+        <v>34.923000000000002</v>
       </c>
       <c r="I23">
-        <v>34.959000000000003</v>
+        <v>38.845999999999997</v>
       </c>
       <c r="J23">
-        <v>38.308999999999997</v>
+        <v>42.566000000000003</v>
       </c>
       <c r="K23">
-        <v>41.933999999999997</v>
+        <v>46.594000000000001</v>
       </c>
       <c r="L23">
-        <v>45.262999999999998</v>
+        <v>50.292999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1184,34 +1184,34 @@
         <v>5</v>
       </c>
       <c r="C24">
-        <v>102.6</v>
+        <v>81.5</v>
       </c>
       <c r="D24">
-        <v>205.2</v>
+        <v>163</v>
       </c>
       <c r="E24">
-        <v>307.8</v>
+        <v>244.5</v>
       </c>
       <c r="F24">
-        <v>410.4</v>
+        <v>326</v>
       </c>
       <c r="G24">
-        <v>513</v>
+        <v>407.5</v>
       </c>
       <c r="H24">
-        <v>615.6</v>
+        <v>489</v>
       </c>
       <c r="I24">
-        <v>718.2</v>
+        <v>570.5</v>
       </c>
       <c r="J24">
-        <v>820.8</v>
+        <v>652</v>
       </c>
       <c r="K24">
-        <v>923.4</v>
+        <v>733.5</v>
       </c>
       <c r="L24">
-        <v>1026</v>
+        <v>815</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1220,34 +1220,34 @@
         <v>6</v>
       </c>
       <c r="C25">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="D25">
-        <v>306</v>
+        <v>340</v>
       </c>
       <c r="E25">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="F25">
-        <v>612</v>
+        <v>680</v>
       </c>
       <c r="G25">
-        <v>765</v>
+        <v>850</v>
       </c>
       <c r="H25">
-        <v>918</v>
+        <v>1020</v>
       </c>
       <c r="I25">
-        <v>1071</v>
+        <v>1190</v>
       </c>
       <c r="J25">
-        <v>1224</v>
+        <v>1360</v>
       </c>
       <c r="K25">
-        <v>1377</v>
+        <v>1530</v>
       </c>
       <c r="L25">
-        <v>1530</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1256,34 +1256,34 @@
         <v>7</v>
       </c>
       <c r="C26">
-        <v>73.349999999999994</v>
+        <v>114</v>
       </c>
       <c r="D26">
-        <v>146.69999999999999</v>
+        <v>228</v>
       </c>
       <c r="E26">
-        <v>220.05</v>
+        <v>342</v>
       </c>
       <c r="F26">
-        <v>293.39999999999998</v>
+        <v>456</v>
       </c>
       <c r="G26">
-        <v>366.75</v>
+        <v>570</v>
       </c>
       <c r="H26">
-        <v>440.1</v>
+        <v>684</v>
       </c>
       <c r="I26">
-        <v>513.45000000000005</v>
+        <v>798</v>
       </c>
       <c r="J26">
-        <v>586.79999999999995</v>
+        <v>912</v>
       </c>
       <c r="K26">
-        <v>660.15</v>
+        <v>1026</v>
       </c>
       <c r="L26">
-        <v>733.5</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1491,34 +1491,34 @@
         <v>10</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E38">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F38">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="G38">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="H38">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="I38">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="J38">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="K38">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="L38">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -1529,34 +1529,34 @@
         <v>5</v>
       </c>
       <c r="C39">
-        <v>0.41599999999999998</v>
+        <v>4.1639999999999997</v>
       </c>
       <c r="D39">
-        <v>0.82899999999999996</v>
+        <v>8.2929999999999993</v>
       </c>
       <c r="E39">
-        <v>1.3049999999999999</v>
+        <v>13.055999999999999</v>
       </c>
       <c r="F39">
-        <v>1.6719999999999999</v>
+        <v>16.724</v>
       </c>
       <c r="G39">
-        <v>2.0510000000000002</v>
+        <v>20.513000000000002</v>
       </c>
       <c r="H39">
-        <v>2.4630000000000001</v>
+        <v>24.638000000000002</v>
       </c>
       <c r="I39">
-        <v>2.9119999999999999</v>
+        <v>29.126000000000001</v>
       </c>
       <c r="J39">
-        <v>3.3170000000000002</v>
+        <v>33.177</v>
       </c>
       <c r="K39">
-        <v>3.7290000000000001</v>
+        <v>37.290999999999997</v>
       </c>
       <c r="L39">
-        <v>4.1429999999999998</v>
+        <v>41.436</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -1565,34 +1565,34 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0.71299999999999997</v>
+        <v>7.1340000000000003</v>
       </c>
       <c r="D40">
-        <v>1.4219999999999999</v>
+        <v>14.225</v>
       </c>
       <c r="E40">
-        <v>2.1349999999999998</v>
+        <v>21.355</v>
       </c>
       <c r="F40">
-        <v>2.8420000000000001</v>
+        <v>28.428999999999998</v>
       </c>
       <c r="G40">
-        <v>3.5510000000000002</v>
+        <v>35.511000000000003</v>
       </c>
       <c r="H40">
-        <v>4.2380000000000004</v>
+        <v>42.384</v>
       </c>
       <c r="I40">
-        <v>4.9779999999999998</v>
+        <v>49.786000000000001</v>
       </c>
       <c r="J40">
-        <v>5.6870000000000003</v>
+        <v>56.872999999999998</v>
       </c>
       <c r="K40">
-        <v>6.3949999999999996</v>
+        <v>63.954000000000001</v>
       </c>
       <c r="L40">
-        <v>7.2409999999999997</v>
+        <v>72.415999999999997</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -1601,34 +1601,34 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0.32300000000000001</v>
+        <v>3.2360000000000002</v>
       </c>
       <c r="D41">
-        <v>0.64100000000000001</v>
+        <v>6.415</v>
       </c>
       <c r="E41">
-        <v>0.97299999999999998</v>
+        <v>9.7370000000000001</v>
       </c>
       <c r="F41">
-        <v>1.284</v>
+        <v>12.846</v>
       </c>
       <c r="G41">
-        <v>1.6319999999999999</v>
+        <v>16.327999999999999</v>
       </c>
       <c r="H41">
-        <v>1.962</v>
+        <v>19.623999999999999</v>
       </c>
       <c r="I41">
-        <v>2.258</v>
+        <v>22.581</v>
       </c>
       <c r="J41">
-        <v>2.6829999999999998</v>
+        <v>26.835999999999999</v>
       </c>
       <c r="K41">
-        <v>2.9209999999999998</v>
+        <v>19.212</v>
       </c>
       <c r="L41">
-        <v>3.3140000000000001</v>
+        <v>33.145000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -1639,34 +1639,34 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>3.96</v>
+        <v>39.6</v>
       </c>
       <c r="D42">
-        <v>7.92</v>
+        <v>79.2</v>
       </c>
       <c r="E42">
-        <v>11.88</v>
+        <v>118.8</v>
       </c>
       <c r="F42">
-        <v>15.84</v>
+        <v>158.4</v>
       </c>
       <c r="G42">
-        <v>19.8</v>
+        <v>198</v>
       </c>
       <c r="H42">
-        <v>23.76</v>
+        <v>237.6</v>
       </c>
       <c r="I42">
-        <v>27.72</v>
+        <v>277.2</v>
       </c>
       <c r="J42">
-        <v>31.68</v>
+        <v>316.8</v>
       </c>
       <c r="K42">
-        <v>35.64</v>
+        <v>356.4</v>
       </c>
       <c r="L42">
-        <v>39.6</v>
+        <v>396</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -1675,34 +1675,34 @@
         <v>6</v>
       </c>
       <c r="C43">
-        <v>7.8</v>
+        <v>78</v>
       </c>
       <c r="D43">
-        <v>15.6</v>
+        <v>156</v>
       </c>
       <c r="E43">
-        <v>23.4</v>
+        <v>234</v>
       </c>
       <c r="F43">
-        <v>31.2</v>
+        <v>312</v>
       </c>
       <c r="G43">
-        <v>39</v>
+        <v>390</v>
       </c>
       <c r="H43">
-        <v>46.8</v>
+        <v>468</v>
       </c>
       <c r="I43">
-        <v>54.6</v>
+        <v>546</v>
       </c>
       <c r="J43">
-        <v>62.4</v>
+        <v>624</v>
       </c>
       <c r="K43">
-        <v>70.2</v>
+        <v>702</v>
       </c>
       <c r="L43">
-        <v>78</v>
+        <v>780</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -1711,34 +1711,34 @@
         <v>7</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D44">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="E44">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="F44">
-        <v>12</v>
+        <v>120</v>
       </c>
       <c r="G44">
-        <v>15</v>
+        <v>150</v>
       </c>
       <c r="H44">
-        <v>18</v>
+        <v>180</v>
       </c>
       <c r="I44">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="J44">
-        <v>24</v>
+        <v>240</v>
       </c>
       <c r="K44">
-        <v>27</v>
+        <v>270</v>
       </c>
       <c r="L44">
-        <v>30</v>
+        <v>300</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -1780,33 +1780,9 @@
       <c r="F48" s="1">
         <v>5</v>
       </c>
-      <c r="G48">
-        <v>6</v>
-      </c>
-      <c r="H48">
-        <v>7</v>
-      </c>
-      <c r="I48">
-        <v>8</v>
-      </c>
-      <c r="J48" s="1">
-        <v>9</v>
-      </c>
-      <c r="K48" s="1">
-        <v>10</v>
-      </c>
-      <c r="L48">
-        <v>11</v>
-      </c>
-      <c r="M48">
-        <v>12</v>
-      </c>
-      <c r="N48">
-        <v>13</v>
-      </c>
-      <c r="O48" s="1">
-        <v>14</v>
-      </c>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="O48" s="1"/>
       <c r="P48" s="1">
         <v>15</v>
       </c>
@@ -1830,33 +1806,6 @@
       <c r="F49">
         <v>0.09</v>
       </c>
-      <c r="G49">
-        <v>0.97</v>
-      </c>
-      <c r="H49">
-        <v>0.93</v>
-      </c>
-      <c r="I49">
-        <v>0.95</v>
-      </c>
-      <c r="J49">
-        <v>0.05</v>
-      </c>
-      <c r="K49">
-        <v>0.03</v>
-      </c>
-      <c r="L49">
-        <v>0.99</v>
-      </c>
-      <c r="M49">
-        <v>0.94</v>
-      </c>
-      <c r="N49">
-        <v>0.96</v>
-      </c>
-      <c r="O49">
-        <v>7.0000000000000007E-2</v>
-      </c>
       <c r="P49">
         <v>0.06</v>
       </c>
@@ -1875,37 +1824,10 @@
         <v>0.81</v>
       </c>
       <c r="E50">
-        <v>0.17</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>0.2</v>
-      </c>
-      <c r="G50">
         <v>1</v>
-      </c>
-      <c r="H50">
-        <v>0.85</v>
-      </c>
-      <c r="I50">
-        <v>0.87</v>
-      </c>
-      <c r="J50">
-        <v>0.16</v>
-      </c>
-      <c r="K50">
-        <v>0.13</v>
-      </c>
-      <c r="L50">
-        <v>1</v>
-      </c>
-      <c r="M50">
-        <v>0.82</v>
-      </c>
-      <c r="N50">
-        <v>0.83</v>
-      </c>
-      <c r="O50">
-        <v>0.21</v>
       </c>
       <c r="P50">
         <v>0.16</v>
@@ -1913,6 +1835,11 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A47:P47"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:L1"/>
@@ -1924,11 +1851,6 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A47:P47"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Experiment results/Experiment_results (DB2).xlsx
+++ b/Experiment results/Experiment_results (DB2).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songmingyang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songmingyang/Desktop/暂时不用/Code/Song_Paper7_Code/Result2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E06EBC41-1BD8-2744-BFCB-ABA80C96FEFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E749907-8969-B64F-A2F9-1EB309E467DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6800" yWindow="1200" windowWidth="25000" windowHeight="14020" xr2:uid="{1687F7B1-0F86-AD43-9143-76067F66B568}"/>
+    <workbookView xWindow="600" yWindow="500" windowWidth="25000" windowHeight="14020" xr2:uid="{1687F7B1-0F86-AD43-9143-76067F66B568}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,52 +94,51 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>1k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>The number of tracking</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9k</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth cost (KB)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>Ratio of valid data</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>The number of tracking</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>6k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>8k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>9k</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Bandwidth cost (KB)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -539,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{691DB078-AD29-9643-8284-9CA89D239134}">
   <dimension ref="A1:P50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I51" sqref="I51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1304,34 +1303,34 @@
     </row>
     <row r="30" spans="1:12">
       <c r="B30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" t="s">
         <v>18</v>
       </c>
-      <c r="C30" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" t="s">
-        <v>16</v>
-      </c>
-      <c r="E30" t="s">
-        <v>17</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>19</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>20</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>21</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>22</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>23</v>
-      </c>
-      <c r="K30" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1372,7 +1371,7 @@
     <row r="32" spans="1:12">
       <c r="A32" s="2"/>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C32">
         <v>35.155999999999999</v>
@@ -1440,7 +1439,7 @@
     <row r="34" spans="1:16">
       <c r="A34" s="2"/>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34">
         <v>35.155999999999999</v>
@@ -1743,23 +1742,17 @@
     </row>
     <row r="47" spans="1:16">
       <c r="A47" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-      <c r="I47" s="2"/>
-      <c r="J47" s="2"/>
-      <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
-      <c r="P47" s="2"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
     </row>
     <row r="48" spans="1:16">
       <c r="A48" t="s">
@@ -1780,14 +1773,8 @@
       <c r="F48" s="1">
         <v>5</v>
       </c>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="49" spans="1:16">
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1806,11 +1793,8 @@
       <c r="F49">
         <v>0.09</v>
       </c>
-      <c r="P49">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="50" spans="1:16">
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" t="s">
         <v>6</v>
       </c>
@@ -1829,17 +1813,14 @@
       <c r="F50">
         <v>1</v>
       </c>
-      <c r="P50">
-        <v>0.16</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A47:F47"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A39:A41"/>
     <mergeCell ref="A42:A44"/>
     <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A47:P47"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:L1"/>

--- a/Experiment results/Experiment_results (DB2).xlsx
+++ b/Experiment results/Experiment_results (DB2).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/songmingyang/Desktop/暂时不用/Code/Song_Paper7_Code/Result2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E749907-8969-B64F-A2F9-1EB309E467DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75383B28-9080-A443-9E83-8522D5EB50A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="500" windowWidth="25000" windowHeight="14020" xr2:uid="{1687F7B1-0F86-AD43-9143-76067F66B568}"/>
   </bookViews>
@@ -539,7 +539,7 @@
   <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1791,7 +1791,7 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="F49">
-        <v>0.09</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1811,16 +1811,11 @@
         <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0.93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="A42:A44"/>
-    <mergeCell ref="A37:L37"/>
     <mergeCell ref="A31:A32"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A1:L1"/>
@@ -1832,6 +1827,11 @@
     <mergeCell ref="A21:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="A37:L37"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
